--- a/docentes/Castro Vasquez Julieta - Estadisticos 20211.xlsx
+++ b/docentes/Castro Vasquez Julieta - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="29">
   <si>
     <t>Mat</t>
   </si>
@@ -73,115 +73,19 @@
     <t>Reprobadas</t>
   </si>
   <si>
-    <t>ALVARADO</t>
-  </si>
-  <si>
-    <t>ANGEL</t>
-  </si>
-  <si>
-    <t>BERISTAIN</t>
-  </si>
-  <si>
-    <t>COLOHUA</t>
-  </si>
-  <si>
-    <t>CRUZ</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>XILCAHUA</t>
   </si>
   <si>
     <t>HERNANDEZ</t>
   </si>
   <si>
-    <t>HUERTA</t>
-  </si>
-  <si>
-    <t>JUSTO</t>
-  </si>
-  <si>
-    <t>LIMA</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>MENDOZA</t>
-  </si>
-  <si>
-    <t>REYES</t>
-  </si>
-  <si>
-    <t>TLECUILE</t>
-  </si>
-  <si>
-    <t>VARGAS</t>
-  </si>
-  <si>
-    <t>XOTLANIHUA</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>XILCAHUA</t>
-  </si>
-  <si>
-    <t>CIRUELO</t>
-  </si>
-  <si>
-    <t>MARIA</t>
-  </si>
-  <si>
-    <t>APALE</t>
-  </si>
-  <si>
-    <t>RAMIREZ</t>
-  </si>
-  <si>
-    <t>CONDE</t>
-  </si>
-  <si>
-    <t>IXMATLAHUA</t>
-  </si>
-  <si>
-    <t>CERVANTES</t>
-  </si>
-  <si>
-    <t>GALEOTE</t>
-  </si>
-  <si>
-    <t>JIMENEZ</t>
-  </si>
-  <si>
-    <t>SALGADO</t>
-  </si>
-  <si>
-    <t>ENRIQUEZ</t>
-  </si>
-  <si>
-    <t>LORENZO</t>
-  </si>
-  <si>
-    <t>MARINERO</t>
-  </si>
-  <si>
-    <t>CARRERA</t>
-  </si>
-  <si>
-    <t>LEON</t>
-  </si>
-  <si>
-    <t>OFICIAL</t>
-  </si>
-  <si>
-    <t>VALLEJO</t>
-  </si>
-  <si>
-    <t>TETLA</t>
+    <t>DE JESUS</t>
   </si>
   <si>
     <t>RODRIGUEZ</t>
@@ -190,73 +94,16 @@
     <t>TLAXCALA</t>
   </si>
   <si>
-    <t>FATIMA</t>
-  </si>
-  <si>
-    <t>JOSSELIN GUADALUPE</t>
-  </si>
-  <si>
-    <t>JOSE ISAIAS</t>
-  </si>
-  <si>
-    <t>FERNANDA</t>
-  </si>
-  <si>
-    <t>JUAN ALBERTO</t>
-  </si>
-  <si>
-    <t>JENIFER</t>
-  </si>
-  <si>
-    <t>VICTORINO</t>
-  </si>
-  <si>
-    <t>GERMAN ISAI</t>
-  </si>
-  <si>
-    <t>MARIA ISABEL</t>
-  </si>
-  <si>
-    <t>ARTURO</t>
-  </si>
-  <si>
-    <t>YAZMIN</t>
-  </si>
-  <si>
     <t>EVELYN</t>
   </si>
   <si>
-    <t>MERARY MADAY</t>
-  </si>
-  <si>
-    <t>CAROLINA</t>
-  </si>
-  <si>
-    <t>ITZEL</t>
-  </si>
-  <si>
-    <t>FERNANDO VADHIR</t>
-  </si>
-  <si>
-    <t>CYNTHIA AIDEE</t>
-  </si>
-  <si>
-    <t>SAUL</t>
-  </si>
-  <si>
-    <t>SELINA</t>
-  </si>
-  <si>
-    <t>ERIKA</t>
+    <t>EMILIO</t>
+  </si>
+  <si>
+    <t>LUIS ANGEL</t>
   </si>
   <si>
     <t>EDGAR DANIEL</t>
-  </si>
-  <si>
-    <t>EMILIO</t>
-  </si>
-  <si>
-    <t>LUIS ANGEL</t>
   </si>
 </sst>
 </file>
@@ -660,16 +507,19 @@
         <v>35</v>
       </c>
       <c r="D2">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="H2">
+        <v>8.9</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -683,16 +533,19 @@
         <v>39</v>
       </c>
       <c r="D3">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>74.36</v>
+      </c>
+      <c r="H3">
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -777,7 +630,7 @@
         <v>35</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -800,7 +653,7 @@
         <v>39</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -885,16 +738,19 @@
         <v>35</v>
       </c>
       <c r="D2">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="H2">
+        <v>8.9</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -908,16 +764,19 @@
         <v>39</v>
       </c>
       <c r="D3">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>74.36</v>
+      </c>
+      <c r="H3">
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -953,7 +812,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -988,22 +847,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>20330051920187</v>
+        <v>20330051920347</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2">
         <v>6</v>
@@ -1011,22 +870,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>20330051920221</v>
+        <v>20330051920352</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>6</v>
@@ -1034,22 +893,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20330051920374</v>
+        <v>20330051920357</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G4">
         <v>6</v>
@@ -1057,461 +916,24 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20330051920224</v>
+        <v>20330051920381</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>20330051920225</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>20330051920375</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>20330051920227</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>20330051920228</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>20330051920229</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>20330051920230</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>20330051920231</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>20330051920232</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>20330051920376</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>20330051920238</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>20330051920241</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>20330051920248</v>
-      </c>
-      <c r="B17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>20330051920249</v>
-      </c>
-      <c r="B18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>20330051920256</v>
-      </c>
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" t="s">
-        <v>74</v>
-      </c>
-      <c r="E19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
-        <v>20330051920257</v>
-      </c>
-      <c r="B20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21">
-        <v>20330051920258</v>
-      </c>
-      <c r="B21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22">
-        <v>20330051920381</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23">
-        <v>20330051920352</v>
-      </c>
-      <c r="B23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" t="s">
-        <v>78</v>
-      </c>
-      <c r="E23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24">
-        <v>20330051920357</v>
-      </c>
-      <c r="B24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" t="s">
-        <v>79</v>
-      </c>
-      <c r="E24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24">
         <v>6</v>
       </c>
     </row>

--- a/docentes/Castro Vasquez Julieta - Estadisticos 20211.xlsx
+++ b/docentes/Castro Vasquez Julieta - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="41">
   <si>
     <t>Mat</t>
   </si>
@@ -73,37 +73,73 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>BARRAGAN</t>
+  </si>
+  <si>
+    <t>BACILIO</t>
+  </si>
+  <si>
     <t>LOPEZ</t>
   </si>
   <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>MOLOHUA</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
     <t>SANCHEZ</t>
   </si>
   <si>
     <t>XILCAHUA</t>
   </si>
   <si>
-    <t>HERNANDEZ</t>
+    <t>CASTILLO</t>
+  </si>
+  <si>
+    <t>ATILANO</t>
   </si>
   <si>
     <t>DE JESUS</t>
   </si>
   <si>
+    <t>GUZMAN</t>
+  </si>
+  <si>
+    <t>JIMENEZ</t>
+  </si>
+  <si>
     <t>RODRIGUEZ</t>
   </si>
   <si>
     <t>TLAXCALA</t>
   </si>
   <si>
+    <t>JAIR</t>
+  </si>
+  <si>
+    <t>YAIR</t>
+  </si>
+  <si>
     <t>EVELYN</t>
   </si>
   <si>
+    <t>ALEXIS MANUEL</t>
+  </si>
+  <si>
+    <t>JESUS HAZAEL</t>
+  </si>
+  <si>
+    <t>EDGAR DANIEL</t>
+  </si>
+  <si>
     <t>EMILIO</t>
   </si>
   <si>
     <t>LUIS ANGEL</t>
-  </si>
-  <si>
-    <t>EDGAR DANIEL</t>
   </si>
 </sst>
 </file>
@@ -504,10 +540,10 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -516,7 +552,7 @@
         <v>14</v>
       </c>
       <c r="G2">
-        <v>40</v>
+        <v>38.89</v>
       </c>
       <c r="H2">
         <v>8.9</v>
@@ -556,10 +592,10 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -568,7 +604,7 @@
         <v>8</v>
       </c>
       <c r="G4">
-        <v>34.78</v>
+        <v>33.33</v>
       </c>
       <c r="H4">
         <v>8.9</v>
@@ -624,10 +660,10 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>14</v>
@@ -670,10 +706,10 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>8</v>
@@ -735,10 +771,10 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -747,7 +783,7 @@
         <v>14</v>
       </c>
       <c r="G2">
-        <v>40</v>
+        <v>38.89</v>
       </c>
       <c r="H2">
         <v>8.9</v>
@@ -787,10 +823,10 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -799,7 +835,7 @@
         <v>8</v>
       </c>
       <c r="G4">
-        <v>34.78</v>
+        <v>33.33</v>
       </c>
       <c r="H4">
         <v>8.9</v>
@@ -812,7 +848,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -847,22 +883,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>20330051920347</v>
+        <v>20330051920361</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G2">
         <v>6</v>
@@ -870,16 +906,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>20330051920352</v>
+        <v>20330051920336</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -893,16 +929,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20330051920357</v>
+        <v>20330051920347</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -916,24 +952,116 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20330051920381</v>
+        <v>20330051920014</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>20330051920023</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>20330051920381</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G5">
+      <c r="G7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>20330051920352</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>20330051920357</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9">
         <v>6</v>
       </c>
     </row>
